--- a/PXcontrasts.xlsx
+++ b/PXcontrasts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofnelincoln-my.sharepoint.com/personal/hjin5_unl_edu/Documents/sorghum_nitrogen/result0325/0925/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4213CE16-35A0-459C-8191-73B0E04542A6}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C31AD483-7C39-45A7-A3BF-39F99F8405B6}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="6240" windowWidth="11820" windowHeight="18045" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxPixelCount" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>contrast</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>WT-Res vs Edit5-Res</t>
+  </si>
+  <si>
+    <t>HN vs LN</t>
   </si>
 </sst>
 </file>
@@ -498,18 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -549,7 +552,7 @@
         <v>2.28907997074597E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -569,7 +572,7 @@
         <v>5.0972732947062199E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -589,7 +592,7 @@
         <v>0.16034495698270901</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -609,7 +612,7 @@
         <v>0.67440387243790201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -629,7 +632,7 @@
         <v>0.22626676733458301</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -649,7 +652,7 @@
         <v>0.69666194522575597</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -669,7 +672,7 @@
         <v>0.64937997856865504</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -689,7 +692,7 @@
         <v>0.34130195807304797</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -709,7 +712,7 @@
         <v>0.84291480351917203</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -729,7 +732,7 @@
         <v>0.98009639464157805</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -749,7 +752,7 @@
         <v>4.6355751572987598E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -769,7 +772,7 @@
         <v>0.31180353468887001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -789,7 +792,7 @@
         <v>2.16419360960762E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -809,7 +812,7 @@
         <v>1.53831852252616E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -829,7 +832,7 @@
         <v>2.6202467462446602E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -849,7 +852,7 @@
         <v>1.8626117699704001E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -869,7 +872,7 @@
         <v>4.3293523369652899E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -889,7 +892,7 @@
         <v>0.27080434688083299</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -909,7 +912,7 @@
         <v>0.73835590660846595</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -929,7 +932,7 @@
         <v>0.87493292400907396</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -947,6 +950,26 @@
       </c>
       <c r="F22">
         <v>0.37915516380725101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>1213488.53350966</v>
+      </c>
+      <c r="C23">
+        <v>143549.54044249601</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>8.4534477071054308</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.17320274406411E-8</v>
       </c>
     </row>
   </sheetData>
@@ -956,15 +979,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1738748-901C-48AE-A569-B393D4DCE41B}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1027,7 @@
         <v>0.60122558230387102</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1047,7 @@
         <v>2.2862437693900901E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1044,7 +1067,7 @@
         <v>4.98227904878996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1087,7 @@
         <v>7.2813998901569204E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1084,7 +1107,7 @@
         <v>2.2485777794943099E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1104,7 +1127,7 @@
         <v>6.5592484840467605E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1147,7 @@
         <v>4.48283995667264E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1167,7 @@
         <v>8.6303867171840703E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1187,7 @@
         <v>0.27642557231496701</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1184,7 +1207,7 @@
         <v>0.19080215159777</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1227,7 @@
         <v>4.0257580319439802E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1247,7 @@
         <v>0.449525839450298</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1244,7 +1267,7 @@
         <v>2.0397582851485199E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1264,7 +1287,7 @@
         <v>0.15825687549412601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1307,7 @@
         <v>5.44176451630141E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1304,7 +1327,7 @@
         <v>3.30834045039956E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1324,7 +1347,7 @@
         <v>0.33217461231780199</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1344,7 +1367,7 @@
         <v>0.82572315506642102</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1364,7 +1387,7 @@
         <v>0.61916224767929595</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1407,7 @@
         <v>0.210694157282868</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1402,6 +1425,26 @@
       </c>
       <c r="F22">
         <v>0.44714882711442699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>29.390894492466401</v>
+      </c>
+      <c r="C23">
+        <v>5.09660742963404</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>5.7667565921546302</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6.0624960686767401E-6</v>
       </c>
     </row>
   </sheetData>
@@ -1411,15 +1454,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711C290A-D737-4023-8C9F-6988FDBC3407}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" activeCellId="2" sqref="F2:F5 F7:F9 F12:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1459,7 +1505,7 @@
         <v>1.9599999999999999E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1479,7 +1525,7 @@
         <v>7.4553499999999997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1499,7 +1545,7 @@
         <v>2.5575976E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1519,7 +1565,7 @@
         <v>3.8554125000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1585,7 @@
         <v>0.33896912800000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1605,7 @@
         <v>6.6862099999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1625,7 @@
         <v>2.8904600999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1645,7 @@
         <v>3.7912169999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1665,7 @@
         <v>0.45757111099999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1685,7 @@
         <v>0.36629810000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1659,7 +1705,7 @@
         <v>2.7252E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1725,7 @@
         <v>6.5276658000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1699,7 +1745,7 @@
         <v>1.1891218E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1719,7 +1765,7 @@
         <v>3.3500000000000001E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1739,7 +1785,7 @@
         <v>9.3432229999999995E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1805,7 @@
         <v>3.1321000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1779,7 +1825,7 @@
         <v>0.112709615</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1799,7 +1845,7 @@
         <v>0.28754243099999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1819,7 +1865,7 @@
         <v>0.56516870600000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1839,7 +1885,7 @@
         <v>0.320690111</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1857,6 +1903,26 @@
       </c>
       <c r="F22">
         <v>0.96940384199999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>27925.204634959598</v>
+      </c>
+      <c r="C23">
+        <v>3252.5436599488498</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>8.5856509718300806</v>
+      </c>
+      <c r="F23" s="2">
+        <v>8.8371146908655803E-9</v>
       </c>
     </row>
   </sheetData>
